--- a/biology/Botanique/Coelas/Coelas.xlsx
+++ b/biology/Botanique/Coelas/Coelas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentilla
 Potentilla, les potentilles, est un genre de plantes à fleurs de la famille des Rosacées.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « potentille » vient de potentia, la puissance, en latin.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées pérennes ou arbustives.
 Les fleurs sont à cinq verticilles, solitaires ou en grappes de couleur généralement jaune mais certaines espèces ont des fleurs blanches, roses ou brun-pourpre. Elles ont de nombreuses étamines (&gt;10). Les fruits sont des akènes. Ce genre compte environ 500 espèces dans les régions tempérées.
@@ -576,7 +592,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Flore d'Europe occidentale :
 Potentilla alba L. Potentille blanche
@@ -638,7 +656,9 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille de la Boarmie rhomboïdale (Peribatodes rhomboidaria, Geometridae), un papillon de nuit, se nourrit de potentilles.
 </t>
